--- a/output/relatorio_loja_19864.xlsx
+++ b/output/relatorio_loja_19864.xlsx
@@ -68,7 +68,7 @@
     <t>Gerado em:</t>
   </si>
   <si>
-    <t>2025-08-20 18:04</t>
+    <t>2025-08-21 13:29</t>
   </si>
 </sst>
 </file>
